--- a/resultats_revises_2025-12-12T15-35-28-752Z.xlsx
+++ b/resultats_revises_2025-12-12T15-35-28-752Z.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\CA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ABB728-A307-4BDB-8EC9-B088B9862700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DDB02A-5E52-4E5E-882C-BC37B2B85BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="29040" windowHeight="25296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="708" yWindow="2160" windowWidth="30828" windowHeight="21540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Résultats" sheetId="1" r:id="rId1"/>
@@ -44,18 +44,12 @@
     <t>Temps de traitement</t>
   </si>
   <si>
-    <t>Nb erreurs C4</t>
-  </si>
-  <si>
     <t>Points perdus C4</t>
   </si>
   <si>
     <t>Note C4</t>
   </si>
   <si>
-    <t>Nb erreurs C5</t>
-  </si>
-  <si>
     <t>Points perdus C5</t>
   </si>
   <si>
@@ -527,15 +521,9 @@
     <t>MAE_GCCC_150.txt</t>
   </si>
   <si>
-    <t>Nb erreurs C4 - avant</t>
-  </si>
-  <si>
     <t>Différence</t>
   </si>
   <si>
-    <t>Nb erreurs C5 - avant</t>
-  </si>
-  <si>
     <t>03:04:098</t>
   </si>
   <si>
@@ -984,6 +972,18 @@
   </si>
   <si>
     <t>04:22:812</t>
+  </si>
+  <si>
+    <t>Nb erreurs C4 - Analyse 1</t>
+  </si>
+  <si>
+    <t>Nb erreurs C4 - Analyse 2</t>
+  </si>
+  <si>
+    <t>Nb erreurs C5 - Analyse 1</t>
+  </si>
+  <si>
+    <t>Nb erreurs C5 - Analyse 2</t>
   </si>
 </sst>
 </file>
@@ -1027,10 +1027,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1373,7 +1372,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1382,7 +1383,7 @@
     <col min="3" max="3" width="18.796875" customWidth="1"/>
     <col min="4" max="4" width="14.796875" customWidth="1"/>
     <col min="5" max="6" width="14.796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.796875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.796875" customWidth="1"/>
     <col min="8" max="8" width="10.796875" customWidth="1"/>
     <col min="9" max="9" width="14.796875" customWidth="1"/>
     <col min="10" max="11" width="14.796875" style="1" customWidth="1"/>
@@ -1390,45 +1391,45 @@
     <col min="13" max="13" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" t="s">
         <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1436,10 +1437,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>167</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -1451,11 +1452,11 @@
         <f>E2-D2</f>
         <v>1</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1471,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1479,10 +1480,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>189</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -1494,11 +1495,11 @@
         <f t="shared" ref="F3:F66" si="0">E3-D3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>3.5</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I3">
         <v>5</v>
@@ -1514,7 +1515,7 @@
         <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1522,10 +1523,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>168</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -1537,11 +1538,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -1557,7 +1558,7 @@
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1565,10 +1566,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>190</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -1580,11 +1581,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I5">
         <v>18</v>
@@ -1600,7 +1601,7 @@
         <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1608,10 +1609,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>191</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="D6">
         <v>11</v>
@@ -1623,11 +1624,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>3.5</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -1643,7 +1644,7 @@
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1651,10 +1652,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>192</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="D7">
         <v>11</v>
@@ -1666,11 +1667,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>9.5</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I7">
         <v>22</v>
@@ -1686,7 +1687,7 @@
         <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1694,10 +1695,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>193</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="D8">
         <v>13</v>
@@ -1709,11 +1710,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>11.5</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I8">
         <v>28</v>
@@ -1729,7 +1730,7 @@
         <v>28</v>
       </c>
       <c r="M8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1737,10 +1738,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>194</v>
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -1752,11 +1753,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I9">
         <v>20</v>
@@ -1772,7 +1773,7 @@
         <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1780,10 +1781,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>195</v>
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="D10">
         <v>18</v>
@@ -1795,11 +1796,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>13.5</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I10">
         <v>46</v>
@@ -1815,7 +1816,7 @@
         <v>45</v>
       </c>
       <c r="M10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1823,10 +1824,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>196</v>
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -1838,11 +1839,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11">
         <v>6.5</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I11">
         <v>8</v>
@@ -1858,7 +1859,7 @@
         <v>8</v>
       </c>
       <c r="M11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1866,10 +1867,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>197</v>
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="D12">
         <v>44</v>
@@ -1881,11 +1882,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12">
         <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I12">
         <v>54</v>
@@ -1901,7 +1902,7 @@
         <v>54</v>
       </c>
       <c r="M12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1909,10 +1910,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>198</v>
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="D13">
         <v>18</v>
@@ -1924,11 +1925,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13">
         <v>14.5</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I13">
         <v>22</v>
@@ -1944,7 +1945,7 @@
         <v>22</v>
       </c>
       <c r="M13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1952,10 +1953,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>199</v>
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D14">
         <v>22</v>
@@ -1967,11 +1968,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14">
         <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I14">
         <v>11</v>
@@ -1987,7 +1988,7 @@
         <v>10</v>
       </c>
       <c r="M14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1995,10 +1996,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>200</v>
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -2010,11 +2011,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15">
         <v>6.5</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I15">
         <v>28</v>
@@ -2030,7 +2031,7 @@
         <v>26</v>
       </c>
       <c r="M15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -2038,10 +2039,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>201</v>
+        <v>26</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -2053,11 +2054,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16">
         <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I16">
         <v>14</v>
@@ -2073,7 +2074,7 @@
         <v>12</v>
       </c>
       <c r="M16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -2081,10 +2082,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>202</v>
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="D17">
         <v>11</v>
@@ -2096,11 +2097,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17">
         <v>9.5</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I17">
         <v>13</v>
@@ -2116,7 +2117,7 @@
         <v>13</v>
       </c>
       <c r="M17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -2124,10 +2125,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>203</v>
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="D18">
         <v>11</v>
@@ -2139,11 +2140,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18">
         <v>7.5</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I18">
         <v>20</v>
@@ -2159,7 +2160,7 @@
         <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -2167,10 +2168,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>204</v>
+        <v>29</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="D19">
         <v>13</v>
@@ -2182,11 +2183,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19">
         <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I19">
         <v>23</v>
@@ -2202,7 +2203,7 @@
         <v>20</v>
       </c>
       <c r="M19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -2210,10 +2211,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>169</v>
+        <v>30</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D20">
         <v>21</v>
@@ -2225,11 +2226,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20">
         <v>16.5</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I20">
         <v>24</v>
@@ -2245,7 +2246,7 @@
         <v>23</v>
       </c>
       <c r="M20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -2253,10 +2254,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>205</v>
+        <v>31</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="D21">
         <v>15</v>
@@ -2268,11 +2269,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21">
         <v>11.5</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I21">
         <v>16</v>
@@ -2288,7 +2289,7 @@
         <v>16</v>
       </c>
       <c r="M21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -2296,10 +2297,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>206</v>
+        <v>32</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="D22">
         <v>15</v>
@@ -2311,11 +2312,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22">
         <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I22">
         <v>51</v>
@@ -2331,7 +2332,7 @@
         <v>23</v>
       </c>
       <c r="M22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -2339,10 +2340,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>170</v>
+        <v>33</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D23">
         <v>13</v>
@@ -2354,11 +2355,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23">
         <v>12.5</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I23">
         <v>16</v>
@@ -2374,7 +2375,7 @@
         <v>14</v>
       </c>
       <c r="M23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -2382,10 +2383,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>171</v>
+        <v>34</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -2397,11 +2398,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24">
         <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I24">
         <v>8</v>
@@ -2417,7 +2418,7 @@
         <v>8</v>
       </c>
       <c r="M24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -2425,10 +2426,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>207</v>
+        <v>35</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="D25">
         <v>15</v>
@@ -2440,11 +2441,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25">
         <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I25">
         <v>44</v>
@@ -2460,7 +2461,7 @@
         <v>40</v>
       </c>
       <c r="M25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -2468,10 +2469,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>208</v>
+        <v>36</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -2483,11 +2484,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26">
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I26">
         <v>15</v>
@@ -2503,7 +2504,7 @@
         <v>15</v>
       </c>
       <c r="M26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -2511,10 +2512,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>209</v>
+        <v>37</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -2526,11 +2527,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27">
         <v>4</v>
       </c>
       <c r="H27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I27">
         <v>6</v>
@@ -2546,7 +2547,7 @@
         <v>6</v>
       </c>
       <c r="M27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -2554,10 +2555,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>210</v>
+        <v>38</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="D28">
         <v>12</v>
@@ -2569,11 +2570,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28">
         <v>8.5</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I28">
         <v>12</v>
@@ -2589,7 +2590,7 @@
         <v>12</v>
       </c>
       <c r="M28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -2597,10 +2598,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>211</v>
+        <v>39</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="D29">
         <v>13</v>
@@ -2612,11 +2613,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29">
         <v>10</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I29">
         <v>34</v>
@@ -2632,7 +2633,7 @@
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -2640,10 +2641,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>212</v>
+        <v>40</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="D30">
         <v>14</v>
@@ -2655,11 +2656,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30">
         <v>10.5</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I30">
         <v>28</v>
@@ -2675,7 +2676,7 @@
         <v>25</v>
       </c>
       <c r="M30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -2683,10 +2684,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>213</v>
+        <v>41</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="D31">
         <v>35</v>
@@ -2698,11 +2699,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31">
         <v>26</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I31">
         <v>21</v>
@@ -2718,7 +2719,7 @@
         <v>21</v>
       </c>
       <c r="M31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -2726,10 +2727,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>172</v>
+        <v>42</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="D32">
         <v>14</v>
@@ -2741,11 +2742,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32">
         <v>11.5</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I32">
         <v>19</v>
@@ -2761,7 +2762,7 @@
         <v>18</v>
       </c>
       <c r="M32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -2769,10 +2770,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>214</v>
+        <v>43</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="D33">
         <v>17</v>
@@ -2784,11 +2785,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33">
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I33">
         <v>16</v>
@@ -2804,7 +2805,7 @@
         <v>16</v>
       </c>
       <c r="M33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -2812,10 +2813,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>215</v>
+        <v>44</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -2827,11 +2828,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34">
         <v>2.5</v>
       </c>
       <c r="H34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I34">
         <v>13</v>
@@ -2847,7 +2848,7 @@
         <v>12</v>
       </c>
       <c r="M34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -2855,10 +2856,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>216</v>
+        <v>45</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="D35">
         <v>14</v>
@@ -2870,11 +2871,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35">
         <v>11.5</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I35">
         <v>5</v>
@@ -2890,7 +2891,7 @@
         <v>5</v>
       </c>
       <c r="M35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -2898,10 +2899,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>217</v>
+        <v>46</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="D36">
         <v>10</v>
@@ -2913,11 +2914,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36">
         <v>9.5</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I36">
         <v>22</v>
@@ -2933,7 +2934,7 @@
         <v>22</v>
       </c>
       <c r="M36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -2941,10 +2942,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>218</v>
+        <v>47</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="D37">
         <v>15</v>
@@ -2956,11 +2957,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37">
         <v>11.5</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I37">
         <v>3</v>
@@ -2976,7 +2977,7 @@
         <v>3</v>
       </c>
       <c r="M37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -2984,10 +2985,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>219</v>
+        <v>48</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="D38">
         <v>22</v>
@@ -2999,11 +3000,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38">
         <v>14.5</v>
       </c>
       <c r="H38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I38">
         <v>39</v>
@@ -3019,7 +3020,7 @@
         <v>39</v>
       </c>
       <c r="M38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -3027,10 +3028,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>220</v>
+        <v>49</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="D39">
         <v>16</v>
@@ -3042,11 +3043,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39">
         <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I39">
         <v>17</v>
@@ -3062,7 +3063,7 @@
         <v>17</v>
       </c>
       <c r="M39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -3070,10 +3071,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>221</v>
+        <v>50</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="D40">
         <v>11</v>
@@ -3085,11 +3086,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40">
         <v>8.5</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I40">
         <v>8</v>
@@ -3105,7 +3106,7 @@
         <v>8</v>
       </c>
       <c r="M40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -3113,10 +3114,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>222</v>
+        <v>51</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="D41">
         <v>20</v>
@@ -3128,11 +3129,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41">
         <v>15.5</v>
       </c>
       <c r="H41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I41">
         <v>38</v>
@@ -3148,7 +3149,7 @@
         <v>34</v>
       </c>
       <c r="M41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -3156,10 +3157,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>223</v>
+        <v>52</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="D42">
         <v>23</v>
@@ -3171,11 +3172,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42">
         <v>14.5</v>
       </c>
       <c r="H42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I42">
         <v>17</v>
@@ -3191,7 +3192,7 @@
         <v>11</v>
       </c>
       <c r="M42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -3199,10 +3200,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>224</v>
+        <v>53</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="D43">
         <v>16</v>
@@ -3214,11 +3215,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43">
         <v>14.5</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I43">
         <v>17</v>
@@ -3234,7 +3235,7 @@
         <v>17</v>
       </c>
       <c r="M43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -3242,10 +3243,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>225</v>
+        <v>54</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="D44">
         <v>13</v>
@@ -3257,11 +3258,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44">
         <v>10</v>
       </c>
       <c r="H44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I44">
         <v>30</v>
@@ -3277,7 +3278,7 @@
         <v>30</v>
       </c>
       <c r="M44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -3285,10 +3286,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>226</v>
+        <v>55</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="D45">
         <v>23</v>
@@ -3300,11 +3301,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45">
         <v>17</v>
       </c>
       <c r="H45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I45">
         <v>2</v>
@@ -3320,7 +3321,7 @@
         <v>2</v>
       </c>
       <c r="M45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -3328,10 +3329,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>227</v>
+        <v>56</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="D46">
         <v>9</v>
@@ -3343,11 +3344,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46">
         <v>8</v>
       </c>
       <c r="H46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I46">
         <v>16</v>
@@ -3363,7 +3364,7 @@
         <v>16</v>
       </c>
       <c r="M46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -3371,10 +3372,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>228</v>
+        <v>57</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="D47">
         <v>22</v>
@@ -3386,11 +3387,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47">
         <v>15.5</v>
       </c>
       <c r="H47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I47">
         <v>12</v>
@@ -3406,7 +3407,7 @@
         <v>12</v>
       </c>
       <c r="M47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -3414,10 +3415,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>173</v>
+        <v>58</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3429,11 +3430,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48">
         <v>1.5</v>
       </c>
       <c r="H48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I48">
         <v>6</v>
@@ -3449,7 +3450,7 @@
         <v>6</v>
       </c>
       <c r="M48" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -3457,10 +3458,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>229</v>
+        <v>59</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="D49">
         <v>15</v>
@@ -3472,11 +3473,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49">
         <v>11</v>
       </c>
       <c r="H49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I49">
         <v>6</v>
@@ -3492,7 +3493,7 @@
         <v>5</v>
       </c>
       <c r="M49" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -3500,10 +3501,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>230</v>
+        <v>60</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="D50">
         <v>11</v>
@@ -3515,11 +3516,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50">
         <v>7.5</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I50">
         <v>9</v>
@@ -3535,7 +3536,7 @@
         <v>7</v>
       </c>
       <c r="M50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -3543,10 +3544,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>174</v>
+        <v>61</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="D51">
         <v>12</v>
@@ -3558,11 +3559,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51">
         <v>10.5</v>
       </c>
       <c r="H51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I51">
         <v>9</v>
@@ -3578,7 +3579,7 @@
         <v>9</v>
       </c>
       <c r="M51" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -3586,10 +3587,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>231</v>
+        <v>62</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="D52">
         <v>4</v>
@@ -3601,11 +3602,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52">
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I52">
         <v>6</v>
@@ -3621,7 +3622,7 @@
         <v>6</v>
       </c>
       <c r="M52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -3629,10 +3630,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>232</v>
+        <v>63</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="D53">
         <v>19</v>
@@ -3644,11 +3645,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53">
         <v>9.5</v>
       </c>
       <c r="H53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I53">
         <v>9</v>
@@ -3664,7 +3665,7 @@
         <v>9</v>
       </c>
       <c r="M53" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -3672,10 +3673,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>233</v>
+        <v>64</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -3687,11 +3688,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54">
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I54">
         <v>20</v>
@@ -3707,7 +3708,7 @@
         <v>20</v>
       </c>
       <c r="M54" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -3715,10 +3716,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>234</v>
+        <v>65</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="D55">
         <v>12</v>
@@ -3730,11 +3731,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55">
         <v>7</v>
       </c>
       <c r="H55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I55">
         <v>21</v>
@@ -3750,7 +3751,7 @@
         <v>18</v>
       </c>
       <c r="M55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -3758,10 +3759,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>235</v>
+        <v>66</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="D56">
         <v>14</v>
@@ -3773,11 +3774,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56">
         <v>13</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I56">
         <v>20</v>
@@ -3793,7 +3794,7 @@
         <v>19</v>
       </c>
       <c r="M56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -3801,10 +3802,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>236</v>
+        <v>67</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="D57">
         <v>17</v>
@@ -3816,11 +3817,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57">
         <v>12.5</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I57">
         <v>14</v>
@@ -3836,7 +3837,7 @@
         <v>14</v>
       </c>
       <c r="M57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -3844,10 +3845,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>237</v>
+        <v>68</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="D58">
         <v>8</v>
@@ -3859,11 +3860,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58">
         <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I58">
         <v>12</v>
@@ -3879,7 +3880,7 @@
         <v>12</v>
       </c>
       <c r="M58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -3887,10 +3888,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>238</v>
+        <v>69</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="D59">
         <v>7</v>
@@ -3902,11 +3903,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59">
         <v>5.5</v>
       </c>
       <c r="H59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I59">
         <v>102</v>
@@ -3922,7 +3923,7 @@
         <v>92</v>
       </c>
       <c r="M59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -3930,10 +3931,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>239</v>
+        <v>70</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="D60">
         <v>21</v>
@@ -3945,11 +3946,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60">
         <v>16.5</v>
       </c>
       <c r="H60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I60">
         <v>55</v>
@@ -3965,7 +3966,7 @@
         <v>51</v>
       </c>
       <c r="M60" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -3973,10 +3974,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>240</v>
+        <v>71</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="D61">
         <v>21</v>
@@ -3988,11 +3989,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61">
         <v>15.5</v>
       </c>
       <c r="H61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I61">
         <v>31</v>
@@ -4008,7 +4009,7 @@
         <v>31</v>
       </c>
       <c r="M61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -4016,10 +4017,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>175</v>
+        <v>72</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="D62">
         <v>10</v>
@@ -4031,11 +4032,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62">
         <v>7</v>
       </c>
       <c r="H62" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I62">
         <v>4</v>
@@ -4051,7 +4052,7 @@
         <v>4</v>
       </c>
       <c r="M62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
@@ -4059,10 +4060,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>241</v>
+        <v>73</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -4074,11 +4075,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63">
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I63">
         <v>20</v>
@@ -4094,7 +4095,7 @@
         <v>17</v>
       </c>
       <c r="M63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -4102,10 +4103,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>242</v>
+        <v>74</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="D64">
         <v>11</v>
@@ -4117,11 +4118,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64">
         <v>7.5</v>
       </c>
       <c r="H64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I64">
         <v>4</v>
@@ -4137,7 +4138,7 @@
         <v>3</v>
       </c>
       <c r="M64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -4145,10 +4146,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>243</v>
+        <v>75</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="D65">
         <v>14</v>
@@ -4160,11 +4161,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65">
         <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I65">
         <v>22</v>
@@ -4180,7 +4181,7 @@
         <v>20</v>
       </c>
       <c r="M65" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -4188,10 +4189,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>244</v>
+        <v>76</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="D66">
         <v>9</v>
@@ -4203,11 +4204,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66">
         <v>6.5</v>
       </c>
       <c r="H66" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I66">
         <v>19</v>
@@ -4223,7 +4224,7 @@
         <v>18</v>
       </c>
       <c r="M66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
@@ -4231,10 +4232,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>245</v>
+        <v>77</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="D67">
         <v>13</v>
@@ -4246,11 +4247,11 @@
         <f t="shared" ref="F67:F130" si="2">E67-D67</f>
         <v>0</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67">
         <v>9.5</v>
       </c>
       <c r="H67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I67">
         <v>7</v>
@@ -4266,7 +4267,7 @@
         <v>6</v>
       </c>
       <c r="M67" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
@@ -4274,10 +4275,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>246</v>
+        <v>78</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="D68">
         <v>17</v>
@@ -4289,11 +4290,11 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68">
         <v>16.5</v>
       </c>
       <c r="H68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I68">
         <v>19</v>
@@ -4309,7 +4310,7 @@
         <v>19</v>
       </c>
       <c r="M68" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -4317,10 +4318,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>176</v>
+        <v>79</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="D69">
         <v>11</v>
@@ -4332,11 +4333,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G69">
         <v>4.5</v>
       </c>
       <c r="H69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I69">
         <v>10</v>
@@ -4352,7 +4353,7 @@
         <v>10</v>
       </c>
       <c r="M69" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
@@ -4360,10 +4361,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>247</v>
+        <v>80</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="D70">
         <v>22</v>
@@ -4375,11 +4376,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70">
         <v>16</v>
       </c>
       <c r="H70" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I70">
         <v>36</v>
@@ -4395,7 +4396,7 @@
         <v>36</v>
       </c>
       <c r="M70" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
@@ -4403,10 +4404,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>248</v>
+        <v>81</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="D71">
         <v>12</v>
@@ -4418,11 +4419,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71">
         <v>10.5</v>
       </c>
       <c r="H71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I71">
         <v>38</v>
@@ -4438,7 +4439,7 @@
         <v>38</v>
       </c>
       <c r="M71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -4446,10 +4447,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>249</v>
+        <v>82</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="D72">
         <v>11</v>
@@ -4461,11 +4462,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72">
         <v>9</v>
       </c>
       <c r="H72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I72">
         <v>33</v>
@@ -4481,7 +4482,7 @@
         <v>30</v>
       </c>
       <c r="M72" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -4489,10 +4490,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>250</v>
+        <v>83</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="D73">
         <v>18</v>
@@ -4504,11 +4505,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73">
         <v>14.5</v>
       </c>
       <c r="H73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I73">
         <v>7</v>
@@ -4524,7 +4525,7 @@
         <v>6</v>
       </c>
       <c r="M73" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -4532,10 +4533,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>251</v>
+        <v>84</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="D74">
         <v>11</v>
@@ -4547,11 +4548,11 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G74">
         <v>7.5</v>
       </c>
       <c r="H74" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I74">
         <v>25</v>
@@ -4567,7 +4568,7 @@
         <v>24</v>
       </c>
       <c r="M74" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -4575,10 +4576,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>252</v>
+        <v>85</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="D75">
         <v>19</v>
@@ -4590,11 +4591,11 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75">
         <v>14.5</v>
       </c>
       <c r="H75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I75">
         <v>14</v>
@@ -4610,7 +4611,7 @@
         <v>14</v>
       </c>
       <c r="M75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
@@ -4618,10 +4619,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>253</v>
+        <v>86</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="D76">
         <v>9</v>
@@ -4633,11 +4634,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G76">
         <v>8</v>
       </c>
       <c r="H76" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I76">
         <v>12</v>
@@ -4653,7 +4654,7 @@
         <v>12</v>
       </c>
       <c r="M76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -4661,10 +4662,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>254</v>
+        <v>87</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="D77">
         <v>15</v>
@@ -4676,11 +4677,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G77">
         <v>9.5</v>
       </c>
       <c r="H77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I77">
         <v>11</v>
@@ -4696,7 +4697,7 @@
         <v>11</v>
       </c>
       <c r="M77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -4704,10 +4705,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>255</v>
+        <v>88</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -4719,11 +4720,11 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G78">
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -4739,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="M78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
@@ -4747,10 +4748,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>256</v>
+        <v>89</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="D79">
         <v>13</v>
@@ -4762,11 +4763,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G79">
         <v>7</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I79">
         <v>2</v>
@@ -4782,7 +4783,7 @@
         <v>2</v>
       </c>
       <c r="M79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
@@ -4790,10 +4791,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>257</v>
+        <v>90</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="D80">
         <v>14</v>
@@ -4805,11 +4806,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G80">
         <v>12</v>
       </c>
       <c r="H80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I80">
         <v>21</v>
@@ -4825,7 +4826,7 @@
         <v>20</v>
       </c>
       <c r="M80" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
@@ -4833,10 +4834,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>258</v>
+        <v>91</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="D81">
         <v>33</v>
@@ -4848,11 +4849,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G81">
         <v>24</v>
       </c>
       <c r="H81" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I81">
         <v>12</v>
@@ -4868,7 +4869,7 @@
         <v>12</v>
       </c>
       <c r="M81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
@@ -4876,10 +4877,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>94</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>177</v>
+        <v>92</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="D82">
         <v>23</v>
@@ -4891,11 +4892,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G82">
         <v>17.5</v>
       </c>
       <c r="H82" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I82">
         <v>29</v>
@@ -4911,7 +4912,7 @@
         <v>28</v>
       </c>
       <c r="M82" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
@@ -4919,10 +4920,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>95</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>259</v>
+        <v>93</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="D83">
         <v>7</v>
@@ -4934,11 +4935,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G83">
         <v>5.5</v>
       </c>
       <c r="H83" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I83">
         <v>7</v>
@@ -4954,7 +4955,7 @@
         <v>6</v>
       </c>
       <c r="M83" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
@@ -4962,10 +4963,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>96</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>260</v>
+        <v>94</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="D84">
         <v>18</v>
@@ -4977,11 +4978,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G84" s="2">
+      <c r="G84">
         <v>16</v>
       </c>
       <c r="H84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I84">
         <v>5</v>
@@ -4997,7 +4998,7 @@
         <v>3</v>
       </c>
       <c r="M84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
@@ -5005,10 +5006,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>97</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>261</v>
+        <v>95</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="D85">
         <v>16</v>
@@ -5020,11 +5021,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G85" s="2">
+      <c r="G85">
         <v>6.5</v>
       </c>
       <c r="H85" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I85">
         <v>9</v>
@@ -5040,7 +5041,7 @@
         <v>9</v>
       </c>
       <c r="M85" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
@@ -5048,10 +5049,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>262</v>
+        <v>96</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="D86">
         <v>17</v>
@@ -5063,11 +5064,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G86" s="2">
+      <c r="G86">
         <v>13</v>
       </c>
       <c r="H86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I86">
         <v>12</v>
@@ -5083,7 +5084,7 @@
         <v>12</v>
       </c>
       <c r="M86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
@@ -5091,10 +5092,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>99</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>263</v>
+        <v>97</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="D87">
         <v>6</v>
@@ -5106,11 +5107,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G87" s="2">
+      <c r="G87">
         <v>4.5</v>
       </c>
       <c r="H87" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I87">
         <v>11</v>
@@ -5126,7 +5127,7 @@
         <v>11</v>
       </c>
       <c r="M87" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
@@ -5134,10 +5135,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>100</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>264</v>
+        <v>98</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="D88">
         <v>14</v>
@@ -5149,11 +5150,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G88" s="2">
+      <c r="G88">
         <v>11.5</v>
       </c>
       <c r="H88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I88">
         <v>11</v>
@@ -5169,7 +5170,7 @@
         <v>11</v>
       </c>
       <c r="M88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
@@ -5177,10 +5178,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>101</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>178</v>
+        <v>99</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="D89">
         <v>18</v>
@@ -5192,11 +5193,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G89" s="2">
+      <c r="G89">
         <v>13</v>
       </c>
       <c r="H89" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I89">
         <v>72</v>
@@ -5212,7 +5213,7 @@
         <v>63</v>
       </c>
       <c r="M89" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
@@ -5220,10 +5221,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>102</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>179</v>
+        <v>100</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="D90">
         <v>24</v>
@@ -5235,11 +5236,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G90" s="2">
+      <c r="G90">
         <v>20.5</v>
       </c>
       <c r="H90" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I90">
         <v>19</v>
@@ -5255,7 +5256,7 @@
         <v>16</v>
       </c>
       <c r="M90" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
@@ -5263,10 +5264,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>103</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>265</v>
+        <v>101</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="D91">
         <v>31</v>
@@ -5278,11 +5279,11 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G91">
         <v>21</v>
       </c>
       <c r="H91" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I91">
         <v>25</v>
@@ -5298,7 +5299,7 @@
         <v>21</v>
       </c>
       <c r="M91" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
@@ -5306,10 +5307,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>266</v>
+        <v>102</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="D92">
         <v>8</v>
@@ -5321,11 +5322,11 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G92" s="2">
+      <c r="G92">
         <v>5</v>
       </c>
       <c r="H92" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I92">
         <v>9</v>
@@ -5341,7 +5342,7 @@
         <v>9</v>
       </c>
       <c r="M92" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
@@ -5349,10 +5350,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>105</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>267</v>
+        <v>103</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="D93">
         <v>10</v>
@@ -5364,11 +5365,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G93">
         <v>7.5</v>
       </c>
       <c r="H93" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I93">
         <v>3</v>
@@ -5384,7 +5385,7 @@
         <v>3</v>
       </c>
       <c r="M93" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
@@ -5392,10 +5393,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>106</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>268</v>
+        <v>104</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="D94">
         <v>18</v>
@@ -5407,11 +5408,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G94">
         <v>12.5</v>
       </c>
       <c r="H94" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I94">
         <v>32</v>
@@ -5427,7 +5428,7 @@
         <v>32</v>
       </c>
       <c r="M94" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
@@ -5435,10 +5436,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>107</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>269</v>
+        <v>105</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="D95">
         <v>7</v>
@@ -5450,11 +5451,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G95" s="2">
+      <c r="G95">
         <v>6.5</v>
       </c>
       <c r="H95" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I95">
         <v>35</v>
@@ -5470,7 +5471,7 @@
         <v>30</v>
       </c>
       <c r="M95" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
@@ -5478,10 +5479,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>108</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>270</v>
+        <v>106</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="D96">
         <v>7</v>
@@ -5493,11 +5494,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G96" s="2">
+      <c r="G96">
         <v>5</v>
       </c>
       <c r="H96" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I96">
         <v>3</v>
@@ -5513,7 +5514,7 @@
         <v>3</v>
       </c>
       <c r="M96" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
@@ -5521,10 +5522,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>109</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>271</v>
+        <v>107</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="D97">
         <v>21</v>
@@ -5536,11 +5537,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G97">
         <v>21</v>
       </c>
       <c r="H97" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I97">
         <v>13</v>
@@ -5556,7 +5557,7 @@
         <v>12</v>
       </c>
       <c r="M97" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
@@ -5564,10 +5565,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>110</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>272</v>
+        <v>108</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -5579,11 +5580,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G98">
         <v>0.5</v>
       </c>
       <c r="H98" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I98">
         <v>7</v>
@@ -5599,7 +5600,7 @@
         <v>7</v>
       </c>
       <c r="M98" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
@@ -5607,10 +5608,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>111</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>273</v>
+        <v>109</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="D99">
         <v>9</v>
@@ -5622,11 +5623,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G99">
         <v>8</v>
       </c>
       <c r="H99" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I99">
         <v>11</v>
@@ -5642,7 +5643,7 @@
         <v>11</v>
       </c>
       <c r="M99" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
@@ -5650,10 +5651,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>112</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>274</v>
+        <v>110</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="D100">
         <v>7</v>
@@ -5665,11 +5666,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G100" s="2">
+      <c r="G100">
         <v>6</v>
       </c>
       <c r="H100" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I100">
         <v>8</v>
@@ -5685,7 +5686,7 @@
         <v>8</v>
       </c>
       <c r="M100" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
@@ -5693,10 +5694,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>113</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>275</v>
+        <v>111</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="D101">
         <v>15</v>
@@ -5708,11 +5709,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G101" s="2">
+      <c r="G101">
         <v>12.5</v>
       </c>
       <c r="H101" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I101">
         <v>24</v>
@@ -5728,7 +5729,7 @@
         <v>24</v>
       </c>
       <c r="M101" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
@@ -5736,10 +5737,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>114</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>180</v>
+        <v>112</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="D102">
         <v>13</v>
@@ -5751,11 +5752,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G102" s="2">
+      <c r="G102">
         <v>10.5</v>
       </c>
       <c r="H102" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I102">
         <v>32</v>
@@ -5771,7 +5772,7 @@
         <v>32</v>
       </c>
       <c r="M102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
@@ -5779,10 +5780,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>115</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>276</v>
+        <v>113</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="D103">
         <v>15</v>
@@ -5794,11 +5795,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G103" s="2">
+      <c r="G103">
         <v>10.5</v>
       </c>
       <c r="H103" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I103">
         <v>34</v>
@@ -5814,7 +5815,7 @@
         <v>34</v>
       </c>
       <c r="M103" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
@@ -5822,10 +5823,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>116</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>277</v>
+        <v>114</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="D104">
         <v>13</v>
@@ -5837,11 +5838,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G104" s="2">
+      <c r="G104">
         <v>8.5</v>
       </c>
       <c r="H104" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I104">
         <v>11</v>
@@ -5857,7 +5858,7 @@
         <v>11</v>
       </c>
       <c r="M104" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
@@ -5865,10 +5866,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>117</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>278</v>
+        <v>115</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="D105">
         <v>12</v>
@@ -5880,11 +5881,11 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G105" s="2">
+      <c r="G105">
         <v>11.5</v>
       </c>
       <c r="H105" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I105">
         <v>20</v>
@@ -5900,7 +5901,7 @@
         <v>20</v>
       </c>
       <c r="M105" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
@@ -5908,10 +5909,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>118</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>181</v>
+        <v>116</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="D106">
         <v>19</v>
@@ -5923,11 +5924,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G106" s="2">
+      <c r="G106">
         <v>10.5</v>
       </c>
       <c r="H106" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I106">
         <v>48</v>
@@ -5943,7 +5944,7 @@
         <v>46</v>
       </c>
       <c r="M106" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
@@ -5951,10 +5952,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>119</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>279</v>
+        <v>117</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -5966,11 +5967,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G107" s="2">
+      <c r="G107">
         <v>8</v>
       </c>
       <c r="H107" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I107">
         <v>15</v>
@@ -5986,7 +5987,7 @@
         <v>13</v>
       </c>
       <c r="M107" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
@@ -5994,10 +5995,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>120</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>280</v>
+        <v>118</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="D108">
         <v>23</v>
@@ -6009,11 +6010,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G108" s="2">
+      <c r="G108">
         <v>13.5</v>
       </c>
       <c r="H108" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I108">
         <v>11</v>
@@ -6029,7 +6030,7 @@
         <v>11</v>
       </c>
       <c r="M108" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
@@ -6037,10 +6038,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>121</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>281</v>
+        <v>119</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="D109">
         <v>16</v>
@@ -6052,11 +6053,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G109" s="2">
+      <c r="G109">
         <v>15</v>
       </c>
       <c r="H109" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I109">
         <v>4</v>
@@ -6072,7 +6073,7 @@
         <v>4</v>
       </c>
       <c r="M109" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
@@ -6080,10 +6081,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>122</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>282</v>
+        <v>120</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -6095,11 +6096,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G110" s="2">
+      <c r="G110">
         <v>7.5</v>
       </c>
       <c r="H110" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I110">
         <v>9</v>
@@ -6115,7 +6116,7 @@
         <v>8</v>
       </c>
       <c r="M110" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
@@ -6123,10 +6124,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>123</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>283</v>
+        <v>121</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="D111">
         <v>12</v>
@@ -6138,11 +6139,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G111" s="2">
+      <c r="G111">
         <v>10.5</v>
       </c>
       <c r="H111" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I111">
         <v>31</v>
@@ -6158,7 +6159,7 @@
         <v>29</v>
       </c>
       <c r="M111" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
@@ -6166,10 +6167,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>124</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>284</v>
+        <v>122</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="D112">
         <v>11</v>
@@ -6181,11 +6182,11 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G112" s="2">
+      <c r="G112">
         <v>9.5</v>
       </c>
       <c r="H112" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I112">
         <v>10</v>
@@ -6201,7 +6202,7 @@
         <v>10</v>
       </c>
       <c r="M112" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
@@ -6209,10 +6210,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>125</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>285</v>
+        <v>123</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="D113">
         <v>24</v>
@@ -6224,11 +6225,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G113" s="2">
+      <c r="G113">
         <v>18</v>
       </c>
       <c r="H113" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I113">
         <v>22</v>
@@ -6244,7 +6245,7 @@
         <v>22</v>
       </c>
       <c r="M113" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
@@ -6252,10 +6253,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>126</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>286</v>
+        <v>124</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="D114">
         <v>7</v>
@@ -6267,11 +6268,11 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G114" s="2">
+      <c r="G114">
         <v>6.5</v>
       </c>
       <c r="H114" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I114">
         <v>19</v>
@@ -6287,7 +6288,7 @@
         <v>17</v>
       </c>
       <c r="M114" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
@@ -6295,10 +6296,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>127</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>287</v>
+        <v>125</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="D115">
         <v>10</v>
@@ -6310,11 +6311,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G115" s="2">
+      <c r="G115">
         <v>8</v>
       </c>
       <c r="H115" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I115">
         <v>19</v>
@@ -6330,7 +6331,7 @@
         <v>19</v>
       </c>
       <c r="M115" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
@@ -6338,10 +6339,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>128</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>288</v>
+        <v>126</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="D116">
         <v>19</v>
@@ -6353,11 +6354,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G116" s="2">
+      <c r="G116">
         <v>17.5</v>
       </c>
       <c r="H116" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I116">
         <v>29</v>
@@ -6373,7 +6374,7 @@
         <v>28</v>
       </c>
       <c r="M116" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
@@ -6381,10 +6382,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>129</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>182</v>
+        <v>127</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="D117">
         <v>7</v>
@@ -6396,11 +6397,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G117" s="2">
+      <c r="G117">
         <v>6.5</v>
       </c>
       <c r="H117" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I117">
         <v>20</v>
@@ -6416,7 +6417,7 @@
         <v>20</v>
       </c>
       <c r="M117" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
@@ -6424,10 +6425,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>130</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>183</v>
+        <v>128</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="D118">
         <v>23</v>
@@ -6439,11 +6440,11 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G118" s="2">
+      <c r="G118">
         <v>13.5</v>
       </c>
       <c r="H118" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I118">
         <v>25</v>
@@ -6459,7 +6460,7 @@
         <v>25</v>
       </c>
       <c r="M118" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
@@ -6467,10 +6468,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>131</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>184</v>
+        <v>129</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="D119">
         <v>5</v>
@@ -6482,11 +6483,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G119" s="2">
+      <c r="G119">
         <v>3</v>
       </c>
       <c r="H119" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I119">
         <v>34</v>
@@ -6502,7 +6503,7 @@
         <v>32</v>
       </c>
       <c r="M119" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
@@ -6510,10 +6511,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>132</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>289</v>
+        <v>130</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="D120">
         <v>6</v>
@@ -6525,11 +6526,11 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G120" s="2">
+      <c r="G120">
         <v>4.5</v>
       </c>
       <c r="H120" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I120">
         <v>8</v>
@@ -6545,7 +6546,7 @@
         <v>7</v>
       </c>
       <c r="M120" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
@@ -6553,10 +6554,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>133</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>290</v>
+        <v>131</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="D121">
         <v>6</v>
@@ -6568,11 +6569,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G121" s="2">
+      <c r="G121">
         <v>4.5</v>
       </c>
       <c r="H121" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I121">
         <v>8</v>
@@ -6588,7 +6589,7 @@
         <v>8</v>
       </c>
       <c r="M121" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
@@ -6596,10 +6597,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>134</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>291</v>
+        <v>132</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="D122">
         <v>3</v>
@@ -6611,11 +6612,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G122" s="2">
+      <c r="G122">
         <v>1.5</v>
       </c>
       <c r="H122" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I122">
         <v>34</v>
@@ -6631,7 +6632,7 @@
         <v>33</v>
       </c>
       <c r="M122" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
@@ -6639,10 +6640,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>135</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>292</v>
+        <v>133</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="D123">
         <v>3</v>
@@ -6654,11 +6655,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G123" s="2">
+      <c r="G123">
         <v>2</v>
       </c>
       <c r="H123" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I123">
         <v>10</v>
@@ -6674,7 +6675,7 @@
         <v>10</v>
       </c>
       <c r="M123" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
@@ -6682,10 +6683,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>136</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>293</v>
+        <v>134</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="D124">
         <v>12</v>
@@ -6697,11 +6698,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G124" s="2">
+      <c r="G124">
         <v>8.5</v>
       </c>
       <c r="H124" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I124">
         <v>7</v>
@@ -6717,7 +6718,7 @@
         <v>7</v>
       </c>
       <c r="M124" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
@@ -6725,10 +6726,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>137</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>294</v>
+        <v>135</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="D125">
         <v>28</v>
@@ -6740,11 +6741,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G125" s="2">
+      <c r="G125">
         <v>22.5</v>
       </c>
       <c r="H125" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I125">
         <v>26</v>
@@ -6760,7 +6761,7 @@
         <v>24</v>
       </c>
       <c r="M125" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
@@ -6768,10 +6769,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>138</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>295</v>
+        <v>136</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="D126">
         <v>15</v>
@@ -6783,11 +6784,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G126" s="2">
+      <c r="G126">
         <v>13</v>
       </c>
       <c r="H126" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I126">
         <v>5</v>
@@ -6803,7 +6804,7 @@
         <v>5</v>
       </c>
       <c r="M126" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
@@ -6811,10 +6812,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>139</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>185</v>
+        <v>137</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="D127">
         <v>11</v>
@@ -6826,11 +6827,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G127" s="2">
+      <c r="G127">
         <v>10</v>
       </c>
       <c r="H127" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I127">
         <v>9</v>
@@ -6846,7 +6847,7 @@
         <v>9</v>
       </c>
       <c r="M127" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
@@ -6854,10 +6855,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>140</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>296</v>
+        <v>138</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="D128">
         <v>15</v>
@@ -6869,11 +6870,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G128" s="2">
+      <c r="G128">
         <v>11</v>
       </c>
       <c r="H128" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I128">
         <v>42</v>
@@ -6889,7 +6890,7 @@
         <v>40</v>
       </c>
       <c r="M128" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
@@ -6897,10 +6898,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>141</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>297</v>
+        <v>139</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="D129">
         <v>25</v>
@@ -6912,11 +6913,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G129" s="2">
+      <c r="G129">
         <v>17</v>
       </c>
       <c r="H129" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I129">
         <v>8</v>
@@ -6932,7 +6933,7 @@
         <v>8</v>
       </c>
       <c r="M129" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
@@ -6940,10 +6941,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>142</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>186</v>
+        <v>140</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="D130">
         <v>5</v>
@@ -6955,11 +6956,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G130" s="2">
+      <c r="G130">
         <v>4.5</v>
       </c>
       <c r="H130" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -6975,7 +6976,7 @@
         <v>1</v>
       </c>
       <c r="M130" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
@@ -6983,10 +6984,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>143</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>298</v>
+        <v>141</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="D131">
         <v>13</v>
@@ -6998,11 +6999,11 @@
         <f t="shared" ref="F131:F151" si="4">E131-D131</f>
         <v>0</v>
       </c>
-      <c r="G131" s="2">
+      <c r="G131">
         <v>10</v>
       </c>
       <c r="H131" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I131">
         <v>4</v>
@@ -7018,7 +7019,7 @@
         <v>4</v>
       </c>
       <c r="M131" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
@@ -7026,10 +7027,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>144</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>299</v>
+        <v>142</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="D132">
         <v>18</v>
@@ -7041,11 +7042,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G132" s="2">
+      <c r="G132">
         <v>16</v>
       </c>
       <c r="H132" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I132">
         <v>7</v>
@@ -7061,7 +7062,7 @@
         <v>7</v>
       </c>
       <c r="M132" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
@@ -7069,10 +7070,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>145</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>300</v>
+        <v>143</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="D133">
         <v>13</v>
@@ -7084,11 +7085,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G133" s="2">
+      <c r="G133">
         <v>8.5</v>
       </c>
       <c r="H133" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I133">
         <v>9</v>
@@ -7104,7 +7105,7 @@
         <v>9</v>
       </c>
       <c r="M133" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
@@ -7112,10 +7113,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>146</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>301</v>
+        <v>144</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="D134">
         <v>17</v>
@@ -7127,11 +7128,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G134" s="2">
+      <c r="G134">
         <v>15.5</v>
       </c>
       <c r="H134" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I134">
         <v>10</v>
@@ -7147,7 +7148,7 @@
         <v>10</v>
       </c>
       <c r="M134" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
@@ -7155,10 +7156,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>147</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>187</v>
+        <v>145</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="D135">
         <v>23</v>
@@ -7170,11 +7171,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G135" s="2">
+      <c r="G135">
         <v>16</v>
       </c>
       <c r="H135" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I135">
         <v>19</v>
@@ -7190,7 +7191,7 @@
         <v>17</v>
       </c>
       <c r="M135" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
@@ -7198,10 +7199,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>148</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>302</v>
+        <v>146</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="D136">
         <v>8</v>
@@ -7213,11 +7214,11 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G136" s="2">
+      <c r="G136">
         <v>5.5</v>
       </c>
       <c r="H136" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I136">
         <v>20</v>
@@ -7233,7 +7234,7 @@
         <v>19</v>
       </c>
       <c r="M136" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
@@ -7241,10 +7242,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>149</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>303</v>
+        <v>147</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="D137">
         <v>6</v>
@@ -7256,11 +7257,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G137" s="2">
+      <c r="G137">
         <v>5.5</v>
       </c>
       <c r="H137" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I137">
         <v>12</v>
@@ -7276,7 +7277,7 @@
         <v>12</v>
       </c>
       <c r="M137" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
@@ -7284,10 +7285,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>150</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>304</v>
+        <v>148</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="D138">
         <v>5</v>
@@ -7299,11 +7300,11 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="G138" s="2">
+      <c r="G138">
         <v>4</v>
       </c>
       <c r="H138" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I138">
         <v>4</v>
@@ -7319,7 +7320,7 @@
         <v>4</v>
       </c>
       <c r="M138" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
@@ -7327,10 +7328,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>151</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>305</v>
+        <v>149</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="D139">
         <v>8</v>
@@ -7342,11 +7343,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G139" s="2">
+      <c r="G139">
         <v>7</v>
       </c>
       <c r="H139" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I139">
         <v>20</v>
@@ -7362,7 +7363,7 @@
         <v>20</v>
       </c>
       <c r="M139" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
@@ -7370,10 +7371,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>152</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>306</v>
+        <v>150</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="D140">
         <v>26</v>
@@ -7385,11 +7386,11 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="G140" s="2">
+      <c r="G140">
         <v>14.5</v>
       </c>
       <c r="H140" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I140">
         <v>12</v>
@@ -7405,7 +7406,7 @@
         <v>12</v>
       </c>
       <c r="M140" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
@@ -7413,10 +7414,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>153</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>307</v>
+        <v>151</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="D141">
         <v>17</v>
@@ -7428,11 +7429,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G141" s="2">
+      <c r="G141">
         <v>7.5</v>
       </c>
       <c r="H141" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I141">
         <v>46</v>
@@ -7448,7 +7449,7 @@
         <v>42</v>
       </c>
       <c r="M141" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
@@ -7456,10 +7457,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>154</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>308</v>
+        <v>152</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="D142">
         <v>4</v>
@@ -7471,11 +7472,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G142" s="2">
+      <c r="G142">
         <v>3.5</v>
       </c>
       <c r="H142" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I142">
         <v>6</v>
@@ -7491,7 +7492,7 @@
         <v>4</v>
       </c>
       <c r="M142" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.3">
@@ -7499,10 +7500,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>155</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>309</v>
+        <v>153</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D143">
         <v>15</v>
@@ -7514,11 +7515,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G143" s="2">
+      <c r="G143">
         <v>13.5</v>
       </c>
       <c r="H143" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I143">
         <v>7</v>
@@ -7534,7 +7535,7 @@
         <v>7</v>
       </c>
       <c r="M143" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
@@ -7542,10 +7543,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>156</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>310</v>
+        <v>154</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="D144">
         <v>9</v>
@@ -7557,11 +7558,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G144" s="2">
+      <c r="G144">
         <v>8.5</v>
       </c>
       <c r="H144" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I144">
         <v>27</v>
@@ -7577,7 +7578,7 @@
         <v>23</v>
       </c>
       <c r="M144" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
@@ -7585,10 +7586,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>157</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>188</v>
+        <v>155</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="D145">
         <v>17</v>
@@ -7600,11 +7601,11 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G145" s="2">
+      <c r="G145">
         <v>10.5</v>
       </c>
       <c r="H145" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I145">
         <v>8</v>
@@ -7620,7 +7621,7 @@
         <v>8</v>
       </c>
       <c r="M145" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.3">
@@ -7628,10 +7629,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>158</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>311</v>
+        <v>156</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="D146">
         <v>6</v>
@@ -7643,11 +7644,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G146" s="2">
+      <c r="G146">
         <v>5</v>
       </c>
       <c r="H146" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I146">
         <v>5</v>
@@ -7663,7 +7664,7 @@
         <v>5</v>
       </c>
       <c r="M146" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
@@ -7671,10 +7672,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>159</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>312</v>
+        <v>157</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="D147">
         <v>15</v>
@@ -7686,11 +7687,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G147" s="2">
+      <c r="G147">
         <v>10.5</v>
       </c>
       <c r="H147" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I147">
         <v>19</v>
@@ -7706,7 +7707,7 @@
         <v>18</v>
       </c>
       <c r="M147" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.3">
@@ -7714,10 +7715,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>160</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>313</v>
+        <v>158</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="D148">
         <v>9</v>
@@ -7729,11 +7730,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G148" s="2">
+      <c r="G148">
         <v>9</v>
       </c>
       <c r="H148" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I148">
         <v>34</v>
@@ -7749,7 +7750,7 @@
         <v>32</v>
       </c>
       <c r="M148" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.3">
@@ -7757,10 +7758,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>161</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>314</v>
+        <v>159</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="D149">
         <v>12</v>
@@ -7772,11 +7773,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G149" s="2">
+      <c r="G149">
         <v>8.5</v>
       </c>
       <c r="H149" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I149">
         <v>9</v>
@@ -7792,7 +7793,7 @@
         <v>9</v>
       </c>
       <c r="M149" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.3">
@@ -7800,10 +7801,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>162</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>315</v>
+        <v>160</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="D150">
         <v>9</v>
@@ -7815,11 +7816,11 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G150" s="2">
+      <c r="G150">
         <v>6</v>
       </c>
       <c r="H150" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I150">
         <v>40</v>
@@ -7835,7 +7836,7 @@
         <v>37</v>
       </c>
       <c r="M150" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.3">
@@ -7843,10 +7844,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>163</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>316</v>
+        <v>161</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="D151">
         <v>10</v>
@@ -7858,11 +7859,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G151" s="2">
+      <c r="G151">
         <v>8</v>
       </c>
       <c r="H151" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I151">
         <v>8</v>
@@ -7878,7 +7879,7 @@
         <v>8</v>
       </c>
       <c r="M151" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
